--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-脑-机接口系统研究.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-脑-机接口系统研究.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>task_name</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Subtask_MultiDomain_Expert_Analysis</t>
+  </si>
+  <si>
+    <t>CrossDomain_Support_Expansion</t>
+  </si>
+  <si>
+    <t>Final_Solution_Proposal</t>
   </si>
   <si>
     <t xml:space="preserve">人工智能教授
@@ -41,26 +47,26 @@
     <t>Crew Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">生物学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">数学教授
 </t>
   </si>
   <si>
+    <t xml:space="preserve">化学教授
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地理学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">物理学教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">生物学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地理学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化学教授
-</t>
-  </si>
-  <si>
     <t>根据用户提出的问题：脑-机接口系统研究，提炼出其中核心的3-5个子问题，用中文回答。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
   </si>
   <si>
@@ -68,92 +74,380 @@
 </t>
   </si>
   <si>
-    <t>研究如何开发先进的非侵入式和侵入式传感器，以最小的干扰和最高的精度获取大脑活动信号，同时设计高效的信号处理算法，从复杂的大脑活动中提取有用的控制信号，减少噪声影响。</t>
-  </si>
-  <si>
-    <t>研究如何设计直观、易于学习的交互界面，使用户能够有效控制外部设备。这不仅涉及硬件设计，还包括软件层面的用户界面设计，以及如何通过反馈机制提高用户与系统的交互效率。</t>
-  </si>
-  <si>
-    <t>研究长时间使用脑-机接口系统时，如何保证系统的稳定性和可靠性。这包括处理传感器与大脑连接可能随时间变化的问题，以及应对用户大脑活动模式的潜在变化。</t>
-  </si>
-  <si>
-    <t>研究脑-机接口技术的发展带来的伦理和法律挑战，如何平衡技术进步与个人隐私、安全之间的关系，以及这项技术对社会结构和人际关系可能产生的长期影响。</t>
-  </si>
-  <si>
-    <t>研究如何促进神经科学、计算机科学、生物医学工程等不同学科之间的有效合作，确保研究团队能够综合各领域的最新进展，共同推动脑-机接口技术的发展。</t>
-  </si>
-  <si>
-    <t>在脑-机接口系统研究中，可以提炼出以下核心子问题，这些问题既具有学科上的专精性，又相互之间存在着紧密的联系，共同构成了解决整个大问题的基础：
-1. **大脑信号的高效获取与处理技术**：如何开发先进的非侵入式和侵入式传感器，以最小的干扰和最高的精度获取大脑活动信号？此外，如何设计高效的信号处理算法，从复杂的大脑活动中提取有用的控制信号，减少噪声影响？
-2. **大脑-设备交互的设计与优化**：如何设计直观、易于学习的交互界面，使用户能够有效控制外部设备？这不仅涉及硬件设计，还包括软件层面的用户界面设计，以及如何通过反馈机制提高用户与系统的交互效率。
-3. **脑-机接口系统的长期稳定性和可靠性**：长时间使用脑-机接口系统时，如何保证系统的稳定性和可靠性？这包括处理传感器与大脑连接可能随时间变化的问题，以及应对用户大脑活动模式的潜在变化。
-4. **脑-机接口技术的伦理、法律和社会影响**：脑-机接口技术的发展带来了哪些伦理和法律挑战，如何平衡技术进步与个人隐私、安全之间的关系？此外，这项技术对社会结构和人际关系可能产生哪些长期影响？
-5. **跨学科合作与知识整合**：如何促进神经科学、计算机科学、生物医学工程等不同学科之间的有效合作，确保研究团队能够综合各领域的最新进展，共同推动脑-机接口技术的发展？
-这些问题分别从技术实现、用户体验、系统维护、社会伦理和跨学科合作五个维度对脑-机接口系统的开发提出了挑战，也为未来的研究指明了方向。</t>
-  </si>
-  <si>
-    <t>在脑-机接口（Brain-Computer Interface, BCI）系统的研究中，高效的信号获取与处理技术是确保系统性能的关键。为了实现这一目标，我们可以从以下几个方面着手：
-1. **先进的传感器技术开发**：
-   - **非侵入式传感器**：开发高灵敏度的头皮电极，如采用新型材料或优化电极设计，以提高信号采集的质量。例如，基于石墨烯的柔性电极能够更紧密地贴合头皮，减少信号衰减。同时，使用干电极技术可以减少使用导电膏的需要，使设备更加便携和用户友好。
-   - **侵入式传感器**：研究和开发能够长期植入大脑的微电极阵列，这些电极需要具备良好的生物相容性和机械稳定性，以减少对脑组织的损害，并能长时间稳定地采集信号。此外，还需要研究如何通过微创手术技术植入这些电极，以减少手术风险和恢复时间。
-2. **高效的信号处理算法设计**：
-   - **信号去噪**：利用先进的信号处理技术，如独立成分分析（ICA）、小波变换等，去除背景噪声，提高信噪比。例如，ICA可以有效分离出与大脑活动相关的主要信号，而小波变换可以帮助在不同时间尺度上分析信号，从而更精确地识别有用的控制信号。
-   - **特征提取**：开发高效的特征提取算法，从复杂的神经信号中提取出与特定任务相关的特征。这可能包括使用深度学习方法，如卷积神经网络（CNN）和循环神经网络（RNN），来自动学习和识别大脑活动的模式。通过这些方法，可以实现对大脑控制指令的快速和准确解码。
-   - **实时处理**：设计能够实现实时信号处理的算法，这对于BCI系统的实时应用至关重要。这需要优化算法的计算效率，确保在低延迟的情况下完成信号处理任务。
-3. **跨学科合作**：
-   - **与生物医学工程的合作**：与生物医学工程专家合作，优化传感器的设计和植入技术，确保传感器既高效又安全。
-   - **与计算机科学的合作**：与计算机科学专家合作，开发高效的算法和软件工具，支持信号的实时处理和分析。
-   - **与神经科学的合作**：与神经科学家合作，理解大脑活动的生理机制，指导传感器的设计和信号处理算法的开发。
-通过这些综合措施，我们可以开发出既能最小化对大脑干扰，又能高效获取和处理大脑活动信号的BCI系统，为诸如神经疾病治疗、辅助肢体控制等领域提供强有力的工具。</t>
-  </si>
-  <si>
-    <t>在脑-机接口（Brain-Computer Interface, BCI）系统的研究中，我们面临的主要挑战之一是开发能够以最小干扰和最高精度获取大脑活动信号的传感器。这些传感器可以是非侵入式的，如脑电图（EEG）、功能近红外光谱成像（fNIRS）等，也可以是侵入式的，如皮层脑电图（ECoG）、单或多单元记录（单/多电极阵列）等。每种技术都有其优势和局限性，非侵入式传感器由于其易于使用和成本较低，在临床和研究中非常受欢迎，但信号质量通常不如侵入式传感器。侵入式传感器尽管可以提供更高分辨率的大脑活动记录，但涉及手术植入，存在感染和组织损伤的风险。
-为了克服这些技术的局限性，我们正在探索以下几方面的创新：
-1. **传感器技术的改进**：我们正致力于提高现有传感器的敏感度和分辨率，同时减少干扰和噪声。例如，通过优化电极材料和设计，增强EEG信号的信噪比；或者通过开发更小、更灵活的微电极阵列，减少ECoG植入的创伤性。
-2. **信号处理算法的发展**：高效的信号处理算法是BCI系统性能提升的关键。我们正在研究先进的滤波技术、特征提取方法和机器学习算法，以提高从原始信号中提取有用信息的能力。例如，使用深度学习技术来自动识别与特定任务相关的脑电波特征，从而提高信号的解码精度。
-3. **生物相容性和长期稳定性的提高**：对于侵入式传感器，长期稳定地获取高质量信号是一个重要挑战。我们正在研究如何通过改进电极表面的化学性质和结构，提高电极的生物相容性，减少组织反应，确保长期的信号稳定性和可靠性。
-4. **多模态信号融合**：为了获得更全面的大脑活动图谱，我们也在探索将不同类型的传感器集成到一个系统中的可能性，如将EEG与fNIRS或ECoG与单电极阵列结合使用。这种方法可以提供互补的信息，有助于提高BCI系统的准确性和鲁棒性。
-5. **用户体验的优化**：除了技术方面的挑战，用户体验也是我们关注的重点。我们正在设计用户友好的界面和训练程序，帮助用户更快地适应BCI系统，减少学习成本，提高系统使用的便利性和舒适性。
-通过这些多方面的努力，我们的目标是推动脑-机接口技术的发展，使其在医疗康复、辅助生活、人机交互等多个领域发挥更大的作用。</t>
-  </si>
-  <si>
-    <t>设计一个直观、易于学习的交互界面以提高用户对外部设备的控制效率，是脑-机接口（Brain-Computer Interface, BCI）系统研究中的一个关键问题。这不仅涉及到硬件设计的优化，还需要在软件层面进行深入探索，尤其是用户界面设计和反馈机制的构建。以下是几个设计和优化策略，可以帮助我们达到这一目标：
-1. **简化交互模型**：首先，我们需要简化用户的交互模型，确保用户能够以最少的学习成本快速掌握如何与系统交互。这包括为常见的操作提供直接的控制方式，减少用户的认知负担。例如，对于常用的命令，可以设计一套直观的手势或思维模式直接对应，让用户能够轻松记住并应用。
-2. **直观的用户界面**：用户界面应该设计得直观且用户友好。这意味着界面需要清晰地展示信息，同时提供易于理解的视觉和听觉反馈。对于BCI系统而言，这意味着要设计简洁明了的图形用户界面（GUI），以及适时的反馈，告知用户当前的系统状态和操作结果。
-3. **多模态反馈**：为了提高用户的交互效率，系统应该提供多模态的反馈机制。这包括视觉、听觉甚至触觉反馈，帮助用户更好地理解其操作的效果。例如，当用户成功完成一个操作时，系统可以通过声音、屏幕提示或轻微的震动来确认用户的操作，增强用户与系统的互动体验。
-4. **自适应系统**：一个高效的交互界面还应该是自适应的，能够根据用户的使用习惯和偏好进行调整。这要求系统具备一定的学习能力，能够通过机器学习算法分析用户的行为模式，自动调整界面布局和交互方式，以更好地满足用户的需求。
-5. **用户培训和支持**：除了技术上的设计外，还需要为用户提供适当的培训和支持。这包括提供详细的使用指南、在线教程和即时帮助功能，帮助用户克服初次使用时可能遇到的困难，快速上手并熟练掌握系统的使用方法。
-6. **持续的用户反馈和迭代**：设计过程中，持续收集用户反馈并据此进行迭代优化是非常重要的。通过用户测试，可以发现设计中的不足之处，了解用户的真实需求，从而不断改进系统的交互设计，提升用户体验。
-综上所述，设计一个既直观又易于学习的交互界面，对于提高脑-机接口系统的用户体验和有效性至关重要。通过综合应用上述策略，我们可以构建出更加高效、用户友好的交互界面，推动BCI技术的发展和应用。</t>
-  </si>
-  <si>
-    <t>在研究长时间使用脑-机接口系统时，确保系统的稳定性和可靠性是一项挑战，但通过综合考虑工程设计、生物兼容性和适应性算法，我们可以有效应对这一问题。首先，从工程设计的角度出发，选择高质量的材料和精密的制造工艺来制作接口设备的传感器，确保其具有良好的生物兼容性，可以减少炎症反应和组织损伤，从而延长传感器与大脑之间的有效连接时间。此外，传感器的设计应考虑微型化、无线传输和低功耗，以提高用户的舒适度和使用时长。
-其次，为了应对用户大脑活动模式的潜在变化，必须开发自适应的信号处理算法。这些算法能够动态地调整参数，以适应大脑信号的变化，保持解码性能的稳定。例如，通过机器学习技术，算法可以学习用户在不同状态下的大脑活动模式，随着使用时间的增长，不断优化解码模型，提高系统的准确性和响应速度。
-再者，定期的校准和维护也非常重要。用户和操作人员应定期检查传感器的物理状态，评估其与大脑组织的接触情况，并根据需要进行调整或更换。同时，通过定期的用户训练和反馈，可以及时调整系统的参数，确保其适应用户的变化，维持系统的稳定性和可靠性。
-最后，跨学科的合作对于解决这个问题至关重要。神经科学家、工程师、临床医生和心理学家等多领域的专家需要共同工作，从不同的角度出发，综合考量技术、生理和心理因素，共同推进脑-机接口技术的发展，使其更加符合用户的需求，更好地服务于医疗、康复和其他领域。
-通过上述措施的综合应用，我们可以显著提高脑-机接口系统在长时间使用时的稳定性和可靠性，为用户提供一个更加安全、有效的交互平台。</t>
-  </si>
-  <si>
-    <t>脑-机接口技术的发展确实为人类带来了前所未有的机遇，如改善残疾人的生活质量、提高学习效率和工作效率等。然而，随着这项技术的应用越来越广泛，它也引发了众多伦理、法律和社会方面的问题，这些问题需要我们从多个角度进行深入探讨。
-首先，从伦理角度来看，脑-机接口技术可能涉及个人隐私的问题。当技术能够直接读取脑电波信号，甚至解读思想时，个人隐私的边界被重新定义。我们必须制定相应规范，确保技术的应用不侵犯个人隐私，保护人的尊严和自由。此外，还需要考虑技术公平性，确保不同社会群体都能从技术进步中受益，而不是加剧社会不平等。
-从法律角度来看，随着脑-机接口技术的发展，对个人数据的保护、知识产权的归属、责任归属等问题愈发突出。需要建立一套适应新技术发展的法律体系，明确界定技术开发者、服务提供商与用户之间的权利与义务，保护技术创新的同时确保社会秩序的稳定。
-社会结构和人际关系方面，脑-机接口技术有可能改变人们之间的交流方式，增强人与人之间的连接，但也可能造成新的社会分层。例如，那些可以负担得起高级脑-机接口设备的人可能会获得更多的机会和优势，而无法接触这些技术的人则可能面临更大的挑战。因此，政府和社会应该采取措施，确保技术的普及和发展惠及所有人，避免技术鸿沟的扩大。
-为了平衡技术进步与个人隐私、安全之间的关系，以及应对这项技术对社会结构和人际关系可能产生的长期影响，我们需要：
-1. 增强公众对脑-机接口技术及其潜在影响的认识，提高社会对技术伦理问题的关注度。
-2. 建立跨学科的合作机制，包括伦理学家、法律专家、社会学家、技术开发者等，共同探讨技术发展的方向和边界。
-3. 制定和实施严格的法律法规，保护个人隐私和数据安全，确保技术使用的正当性和合法性。
-4. 促进技术创新与社会包容性的结合，通过政策引导和技术普及，让技术进步惠及更多人群。
-综上所述，脑-机接口技术的发展需要我们在享受其带来的便利的同时，充分考虑到其可能带来的伦理、法律和社会挑战，通过多方面的努力，确保技术发展能够更好地服务于人类社会的可持续发展。</t>
-  </si>
-  <si>
-    <t>脑-机接口技术的发展确实需要神经科学、计算机科学、生物医学工程等多个学科的紧密合作。为了促进这些不同学科之间的有效合作，并确保研究团队能够综合各领域的最新进展，我们可以从以下几个方面着手：
-1. **建立跨学科研究团队**：首先，需要组建一个由多领域专家组成的跨学科研究团队。团队成员应包括神经科学家、计算机科学家、生物医学工程师等。通过定期的团队会议和研讨会，促进成员之间的交流与合作，确保各领域的最新进展能够及时分享给团队内的其他成员。
-2. **促进知识共享与学习**：鼓励团队成员相互学习，不仅限于自己的专业领域。可以定期举办跨学科的工作坊和培训课程，邀请各领域的专家进行讲座，帮助团队成员了解其他领域的基础知识和技术前沿，增强团队成员之间的沟通和理解。
-3. **制定统一的研究目标和计划**：在项目开始阶段，应明确团队的研究目标和计划，确保所有成员对项目的方向和目标有一致的理解。同时，研究计划应考虑到各学科的特点和需求，合理分配资源，确保各学科的最新进展能够被有效地整合到项目中。
-4. **建立有效的沟通机制**：建立一个高效的沟通平台，如定期的线上会议、项目管理软件等，以便团队成员能够及时分享实验数据、研究成果和遇到的问题。对于跨学科的项目，有效的沟通尤其重要，可以避免信息孤岛，促进知识的融合。
-5. **鼓励创新和开放性思维**：在跨学科的研究中，创新思维是非常重要的。应鼓励团队成员打破传统思维模式，积极探索新的研究方向和技术手段。同时，保持开放的态度，接纳不同的观点和方法，促进团队内部的交流和协作。
-6. **寻求外部合作与支持**：除了内部团队的协作，还可以寻求与其他高校、研究机构或企业的合作。通过合作项目、共同申请研究基金等方式，引入外部资源和技术，拓宽研究视野，促进技术的快速发展。
-通过上述措施，可以有效促进神经科学、计算机科学、生物医学工程等不同学科之间的合作，确保研究团队能够综合各领域的最新进展，共同推动脑-机接口技术的发展。</t>
+    <t>如何开发出更高效、更稳定的神经信号采集技术，以提高脑-机接口的数据质量？这涉及到神经科学与生物医学工程领域，特别是高密度电极的设计、新型无创或微创信号采集方法的探索，以及如何减少信号噪声，提高信号的信噪比等问题。</t>
+  </si>
+  <si>
+    <t>如何设计出更精确的神经编码与解码算法，以实现对大脑意图的准确理解和解读？这主要涉及机器学习和信号处理领域，包括深度学习模型的选择与优化、多模态数据融合技术、以及如何有效利用有限的训练数据等问题。</t>
+  </si>
+  <si>
+    <t>如何设计出能够适应不同用户特点的脑-机接口系统，提高系统的个性化水平和用户体验？这个问题需要心理学、人机交互设计以及计算机科学等领域的专家共同探讨，包括用户认知模型的构建、用户界面设计、适应性算法的开发等。</t>
+  </si>
+  <si>
+    <t>长期使用脑-机接口技术对用户的身体健康和心理健康可能产生哪些影响？如何确保技术的安全使用，同时平衡技术创新与伦理道德之间的关系？这需要医学、伦理学、法律等多学科专家的合作，共同制定相关标准和指南。</t>
+  </si>
+  <si>
+    <t>如何将脑-机接口技术有效应用于医疗康复、辅助生活等实际场景，以及这项技术将对社会产生哪些长远影响？这涉及到工程技术的实际应用、社会学研究、公共政策制定等多个方面，旨在探索技术如何更好地服务于人类社会。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：脑-机接口系统研究
+</t>
+  </si>
+  <si>
+    <t>请从生物学角度分析如何开发出更高效、更稳定的神经信号采集技术，以提高脑-机接口的数据质量？</t>
+  </si>
+  <si>
+    <t>请从数学角度分析如何设计更精确的神经编码与解码算法，以实现对大脑意图的准确理解和解读？</t>
+  </si>
+  <si>
+    <t>请从人工智能角度分析如何设计能够适应不同用户特点的脑-机接口系统，提高系统的个性化水平和用户体验？</t>
+  </si>
+  <si>
+    <t>请从地理学角度分析脑-机接口技术在实际应用中的社会影响，包括其在医疗康复、辅助生活等领域的应用，以及可能引发的伦理与隐私问题和社会包容性问题。</t>
+  </si>
+  <si>
+    <t>请从物理学角度分析长期使用脑-机接口技术对用户的身体健康和心理健康可能产生的影响，以及如何确保技术的安全使用，同时平衡技术创新与伦理道德之间的关系？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：脑-机接口系统研究
+</t>
+  </si>
+  <si>
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：脑-机接口系统研究
+</t>
+  </si>
+  <si>
+    <t>针对脑-机接口系统研究，可以提炼出以下几个核心子问题，这些问题分别涉及不同的学科领域，但彼此之间存在紧密的关联，共同构成了对整个大问题的探讨基础：
+1. **神经信号的高效采集与处理技术**：如何开发出更高效、更稳定的神经信号采集技术，以提高脑-机接口的数据质量？这涉及到神经科学与生物医学工程领域，特别是高密度电极的设计、新型无创或微创信号采集方法的探索，以及如何减少信号噪声，提高信号的信噪比等问题。
+2. **神经编码与解码算法的优化**：如何设计出更精确的神经编码与解码算法，以实现对大脑意图的准确理解和解读？这主要涉及机器学习和信号处理领域，包括深度学习模型的选择与优化、多模态数据融合技术、以及如何有效利用有限的训练数据等问题。
+3. **脑-机接口系统的用户适应性与个性化设计**：如何设计出能够适应不同用户特点的脑-机接口系统，提高系统的个性化水平和用户体验？这个问题需要心理学、人机交互设计以及计算机科学等领域的专家共同探讨，包括用户认知模型的构建、用户界面设计、适应性算法的开发等。
+4. **长期使用脑-机接口的安全性和伦理问题**：长期使用脑-机接口技术对用户的身体健康和心理健康可能产生哪些影响？如何确保技术的安全使用，同时平衡技术创新与伦理道德之间的关系？这需要医学、伦理学、法律等多学科专家的合作，共同制定相关标准和指南。
+5. **脑-机接口技术的实际应用与社会影响**：如何将脑-机接口技术有效应用于医疗康复、辅助生活等实际场景，以及这项技术将对社会产生哪些长远影响？这涉及到工程技术的实际应用、社会学研究、公共政策制定等多个方面，旨在探索技术如何更好地服务于人类社会。
+这些问题的提出不仅有助于推进脑-机接口技术在各个领域的深入研究，也为跨学科的合作提供了明确的方向。</t>
+  </si>
+  <si>
+    <t>开发出更高效、更稳定的神经信号采集技术，以提高脑-机接口的数据质量，是一个跨学科的挑战，需要综合神经科学、生物医学工程、材料科学以及信息处理技术的最新进展。以下是一些关键的策略和方法：
+1. **高密度电极的设计与应用**：
+   - **微制造技术**：利用微纳米制造技术，如光刻、电沉积等，可以制造出具有高密度、高灵敏度的微电极阵列。这些微电极能够提供更高的空间分辨率，捕捉到更精细的神经活动。
+   - **生物相容性材料**：选择生物相容性好的材料，例如聚酰亚胺、碳纳米管和导电聚合物等，可以减少组织免疫反应和纤维化，提高电极的长期稳定性。
+2. **新型无创和微创信号采集方法**：
+   - **近红外光谱成像（NIRS）**：NIRS技术通过测量脑组织中氧合血红蛋白和脱氧血红蛋白的变化来间接反映神经活动。这种方法是非侵入性的，适合长期监测。
+   - **超声波神经成像**：利用超声波可以实现对大脑深部结构的高分辨率成像，同时还可以用于功能性神经活动的监测。
+   - **柔性电子皮肤**：开发柔性、可穿戴的电子皮肤，可以贴合头皮或颅骨表面，提供长时间、多点的神经信号采集。
+3. **减少信号噪声，提高信噪比**：
+   - **硬件滤波**：使用硬件滤波器，如带通滤波器，可以有效滤除不需要的频率成分，减少环境噪声对信号的影响。
+   - **软件算法**：开发先进的信号处理算法，例如独立成分分析（ICA）、小波变换和自适应滤波等，可以从复杂的背景噪声中提取出有用的神经信号。
+   - **多模态融合**：结合多种信号采集方法，如EEG、fMRI和MEG，通过多模态数据融合技术提高数据的准确性和可靠性。
+4. **系统集成与优化**：
+   - **实时处理与反馈**：设计高效的实时信号处理系统，能够快速响应和反馈，这对于脑-机接口的实际应用至关重要。
+   - **用户适应性**：考虑用户的个体差异，通过机器学习等技术优化信号处理参数，提高系统的适应性和个性化水平。
+5. **伦理与安全**：
+   - **伦理审查**：在开发和应用新的神经信号采集技术时，必须进行严格的伦理审查，确保技术的安全性和伦理性。
+   - **用户教育**：对用户进行必要的培训，确保他们能够正确使用这些设备，并了解相关的安全注意事项。
+通过上述策略和方法，我们可以逐步提高神经信号采集技术的效率和稳定性，从而为脑-机接口系统的广泛实际应用奠定坚实的基础。</t>
+  </si>
+  <si>
+    <t>设计更精确的神经编码与解码算法，以实现对大脑意图的准确理解和解读，是一个涉及机器学习、信号处理以及神经科学等多个领域的复杂问题。为了达到这一目标，我们可以从以下几个方面来考虑：
+1. **深度学习模型的选择与优化**：首先，选择适合神经信号处理的深度学习模型至关重要。卷积神经网络（CNN）在处理空间数据方面表现出色，如EEG信号的空间分布；循环神经网络（RNN）及其变体（如长短期记忆网络LSTM）擅长处理时间序列数据，能够捕捉时间上的依赖关系。对于大脑意图的解码，可以考虑使用混合模型，即结合CNN和RNN来同时处理空间和时间信息。此外，模型的优化也非常重要，包括但不限于模型结构的调整、正则化技术的应用、以及超参数的调优等。
+2. **多模态数据融合技术**：大脑活动不仅仅是单一模态信息的体现，而是多种生物电、化学信号的综合结果。因此，在设计神经编码与解码算法时，融合多模态数据（如EEG、fMRI、MEG等）可以提供更全面的信息，有助于提高解码的精度。多模态数据融合可以通过多种方式实现，如特征级融合、决策级融合等，需要根据具体应用场景来选择最合适的融合策略。
+3. **有效利用有限的训练数据**：在实际应用中，由于伦理和技术限制，往往难以获得大量的标记数据用于训练模型。因此，如何有效利用有限的训练数据是另一个关键问题。这可以通过采用迁移学习、半监督学习、强化学习等技术来解决。例如，迁移学习可以从相关的任务或数据集中迁移已学得的知识，以辅助当前任务的学习；半监督学习则可以利用大量的未标记数据来改进模型的泛化能力；强化学习则可以在与环境的交互中不断优化策略。
+4. **个性化模型设计**：由于每个人的大脑结构和功能存在个体差异，设计个性化的神经编码与解码算法对于提高准确性至关重要。这要求算法能够适应不同个体的神经信号特征。一种方法是在模型训练阶段引入个体化因素，如通过个性化参数调优来适应不同个体的特定模式。
+5. **实验验证与优化**：理论设计最终需要通过实验来验证其有效性和可靠性。在实验设计中，应确保能够收集到高质量的数据，并且设计合理的实验对照，以便准确评估算法的性能。同时，根据实验结果对算法进行不断的优化和调整，以达到最佳的解码效果。
+总之，设计更精确的神经编码与解码算法是一项跨学科的任务，需要结合机器学习、信号处理、神经科学等领域的最新进展。通过上述策略的综合应用，我们可以朝着实现对大脑意图的准确理解和解读这一目标迈进。</t>
+  </si>
+  <si>
+    <t>设计能够适应不同用户特点的脑-机接口系统，提高系统的个性化水平和用户体验，是一个跨学科的挑战，需要心理学、人机交互设计以及计算机科学等领域的专家共同协作。以下是从这些角度出发的一些建议：
+1. **用户认知模型的构建**：
+   - **心理学角度**：深入研究用户在使用脑-机接口系统时的认知过程，包括注意力分配、情绪反应、学习能力和疲劳度等。通过心理实验和问卷调查，收集关于用户认知特点的数据，构建用户认知模型。
+   - **数据驱动的方法**：利用机器学习和数据挖掘技术，分析大量用户使用数据，识别不同用户的认知特点和行为模式，进一步优化用户认知模型。
+2. **用户界面设计**：
+   - **人机交互设计**：设计直观、易用的用户界面，考虑不同用户的能力和需求。例如，为视力受限的用户提供语音提示，为操作不熟练的用户提供逐步指导。
+   - **个性化界面**：根据用户的偏好和习惯，提供可定制的界面设置，如颜色、字体、布局等，增强用户体验。
+   - **多模态交互**：结合视觉、听觉、触觉等多种感官通道，设计多模态交互方式，提高系统的适应性和可用性。
+3. **适应性算法的开发**：
+   - **机器学习**：开发自适应算法，能够根据用户的实时反馈和使用数据，动态调整系统的参数和行为，以更好地匹配用户的当前状态和需求。
+   - **个性化推荐**：利用推荐系统技术，根据用户的使用历史和偏好，推荐最适合的交互模式和任务设置。
+   - **情感计算**：集成情感计算技术，识别用户的情绪状态，调整系统的响应方式，提供更加人性化的交互体验。
+4. **用户反馈和评估**：
+   - **用户测试**：定期进行用户测试，收集用户的反馈意见，评估系统的个性化水平和用户体验。通过迭代设计，不断改进系统的功能和界面。
+   - **性能评估**：建立一套综合的评估指标体系，包括任务完成时间、错误率、用户满意度等，全面评估系统的性能和用户满意度。
+5. **伦理和隐私**：
+   - **用户隐私保护**：确保用户数据的安全和隐私，遵守相关法律法规，透明地告知用户数据的使用方式和目的。
+   - **伦理考虑**：在设计和开发过程中，充分考虑伦理问题，确保系统的使用不会对用户造成负面影响。
+通过以上多方面的综合考虑和跨学科合作，可以设计出更加适应不同用户特点的脑-机接口系统，提高系统的个性化水平和用户体验，推动脑-机接口技术的广泛应用和发展。</t>
+  </si>
+  <si>
+    <t>长期使用脑-机接口技术对用户的身体健康和心理健康可能产生的影响包括但不限于以下几个方面：
+1. 身体健康方面：长期佩戴脑-机接口设备可能会对用户的头皮、颅骨甚至大脑造成物理性损伤。例如，植入式接口可能会引发感染、炎症、神经纤维损伤等问题。此外，长期使用脑-机接口技术可能会导致用户出现头痛、肌肉疲劳等不适症状。
+2. 心理健康方面：长期使用脑-机接口技术可能会对用户的心理健康造成影响。例如，过度依赖脑-机接口技术可能会导致用户在现实生活中感到社交障碍，甚至产生社交焦虑。此外，脑-机接口技术的不当使用可能会导致用户产生隐私泄露的担忧，从而影响其心理健康。
+为了确保脑-机接口技术的安全使用，同时平衡技术创新与伦理道德之间的关系，需要采取以下措施：
+1. 建立安全标准：医学、伦理学、法律等多学科专家应合作制定脑-机接口技术的安全使用标准。标准应涵盖设备的设计、制造、使用、维护等环节，确保技术的安全性。例如，对于植入式接口，应严格控制材料的生物相容性，避免引发不良反应。
+2. 保护用户隐私：技术开发者应确保脑-机接口技术不会泄露用户隐私。例如，可以采用加密技术保护数据传输过程中的信息安全，避免数据被非法获取。同时，应明确规定数据的所有权和使用权，保障用户的合法权益。
+3. 加强伦理审查：在脑-机接口技术的研发和应用过程中，应加强伦理审查，确保技术的合理使用。例如，应对研究对象进行充分的知情同意，保护其合法权益。同时，应避免将脑-机接口技术用于不道德的目的，如操纵他人的思想等。
+4. 促进公众参与：政府、研究机构、企业等应积极与公众沟通，提高公众对脑-机接口技术的认知。同时，应建立有效的渠道，让公众参与技术的决策过程，确保技术的发展符合社会的普遍价值观。
+5. 建立监管机制：政府应建立脑-机接口技术的监管机制，确保技术的安全使用。例如，可以设立专门的监管机构，负责技术的审查、监督和管理。同时，应建立相应的法律法规，对技术的滥用行为进行惩处。
+总之，脑-机接口技术的发展需要多学科专家的合作，共同制定相关标准和指南，确保技术的安全使用，同时平衡技术创新与伦理道德之间的关系。</t>
+  </si>
+  <si>
+    <t>长期使用脑-机接口技术对用户的身体健康和心理健康可能产生多方面的影响。从医学角度来看，长期使用该技术可能会导致电极植入部位的炎症、感染、瘢痕形成等生理问题。此外，对于依赖脑-机接口技术完成日常活动的用户，可能会出现肌肉萎缩、关节僵硬等运动功能退化现象。在心理健康方面，长期依赖脑-机接口技术可能会导致用户产生过度依赖感，影响其自主生活的能力，同时也可能增加社交障碍和孤独感。此外，技术故障或限制可能导致用户产生挫败感和焦虑情绪。
+为了确保脑-机接口技术的安全使用，并平衡技术创新与伦理道德之间的关系，需要医学、伦理学、法律等多学科专家的紧密合作，共同制定相关标准和指南。具体建议如下：
+1. **医学安全性评估**：在技术开发阶段，应进行严格的生物相容性测试，确保电极材料对人体无害；同时，需对长期植入电极后的生理反应进行持续监测，及时发现并处理潜在问题。
+2. **用户适应性训练**：为减少用户对技术的过度依赖，应提供充分的适应性训练，指导用户合理使用脑-机接口，增强其自我管理能力，促进社会互动，避免孤立。
+3. **伦理审查与隐私保护**：建立严格的伦理审查机制，确保技术应用过程中尊重用户意愿，保护个人隐私信息不被滥用。技术设计时应考虑数据加密、匿名化处理等措施，保障信息安全。
+4. **法律法规框架建设**：政府及相关机构应出台专门的法律法规，明确脑-机接口技术的研发、测试、上市等各个环节的规范要求，为技术的健康发展提供法律保障。
+5. **跨学科协作平台搭建**：构建多学科交流平台，促进医学、工程学、心理学、法学等领域专家之间的沟通合作，及时分享研究成果，共同应对技术发展带来的新挑战。
+通过上述措施，可以在确保脑-机接口技术安全有效应用的同时，最大化地发挥其在医疗康复、辅助生活等方面的社会价值，实现技术进步与人文关怀的和谐统一。</t>
+  </si>
+  <si>
+    <t>脑-机接口（Brain-Computer Interface, BCI）技术作为一项新兴的工程技术，近年来在医疗康复、辅助生活等实际场景的应用中展现出巨大的潜力。这项技术通过直接连接大脑与外部设备，使得人们能够仅通过思维来操控计算机或其他设备，对于行动不便的患者或残疾人士来说，无疑是一项重要的辅助工具。从地理学的角度出发，探讨脑-机接口技术的应用与社会影响，可以为我们提供更广阔的视角，理解这项技术如何更好地服务于人类社会，尤其是在不同地区和社会背景下。
+### 医疗康复中的应用
+1. **辅助行动能力**：对于中风、脊髓损伤等导致行动不便的患者，脑-机接口技术可以帮助他们恢复一些基本的行动能力，比如通过思维控制轮椅移动或操作假肢。这不仅提高了患者的生活质量，也促进了他们社会参与的可能性。
+2. **恢复语言功能**：对于丧失语言功能的患者，脑-机接口技术可以通过解读大脑信号，将思维转化为文字或声音，帮助他们更好地与外界沟通。
+3. **精神健康支持**：对于患有严重抑郁症或其他精神障碍的人，脑-机接口技术可以通过监测和调节大脑活动，为患者提供一种新的治疗手段。
+### 辅助生活中的应用
+1. **智能家居控制**：对于行动不便的老年人或残疾人士，脑-机接口技术可以让他们通过思维来控制家中的各类设备，如开关灯、调节温度等，极大地提高了他们的生活自理能力。
+2. **教育辅助**：在特殊教育领域，脑-机接口技术可以为有特殊需要的学生提供个性化的学习工具，如通过思维控制的学习游戏，帮助他们更好地学习和融入社会。
+### 社会影响
+1. **伦理与隐私问题**：随着脑-机接口技术的发展，如何保护个人隐私和数据安全成为了一个重要的议题。此外，技术的使用也可能引发伦理争议，比如技术是否应该被用于改变一个人的思维或情绪。
+2. **社会包容性**：技术的普及和应用需要考虑到不同社会群体的需求，确保技术的可及性和公平性，避免技术鸿沟的扩大。
+3. **公共政策制定**：政府和社会机构需要制定相应的政策来规范脑-机接口技术的应用，确保技术的安全、有效和公平使用。这包括技术标准的建立、市场准入的管理以及对技术风险的评估和管理。
+### 结论
+脑-机接口技术的应用前景广阔，但其发展和应用也伴随着一系列挑战。从空间、环境与人类互动的角度来看，我们需要跨学科合作，结合地理学、社会学、工程学等多个领域的知识，来评估技术的社会影响，制定合理的公共政策，确保技术能够安全、有效地服务于人类社会，促进社会的可持续发展。</t>
+  </si>
+  <si>
+    <t>### 脑-机接口系统研究的核心子问题及其学科视角分析
+1. **神经信号的高效采集与处理技术**
+   **生物学教授的回答**：
+   开发出更高效、更稳定的神经信号采集技术，以提高脑-机接口的数据质量，是一个跨学科的挑战，需要综合神经科学、生物医学工程、材料科学以及信息处理技术的最新进展。以下是一些关键的策略和方法：
+   - **高密度电极的设计与应用**：
+     - **微制造技术**：利用微纳米制造技术，如光刻、电沉积等，可以制造出具有高密度、高灵敏度的微电极阵列。这些微电极能够提供更高的空间分辨率，捕捉到更精细的神经活动。
+     - **生物相容性材料**：选择生物相容性好的材料，例如聚酰亚胺、碳纳米管和导电聚合物等，可以减少组织免疫反应和纤维化，提高电极的长期稳定性。
+   - **新型无创和微创信号采集方法**：
+     - **近红外光谱成像（NIRS）**：NIRS技术通过测量脑组织中氧合血红蛋白和脱氧血红蛋白的变化来间接反映神经活动。这种方法是非侵入性的，适合长期监测。
+     - **超声波神经成像**：利用超声波可以实现对大脑深部结构的高分辨率成像，同时还可以用于功能性神经活动的监测。
+     - **柔性电子皮肤**：开发柔性、可穿戴的电子皮肤，可以贴合头皮或颅骨表面，提供长时间、多点的神经信号采集。
+   - **减少信号噪声，提高信噪比**：
+     - **硬件滤波**：使用硬件滤波器，如带通滤波器，可以有效滤除不需要的频率成分，减少环境噪声对信号的影响。
+     - **软件算法**：开发先进的信号处理算法，例如独立成分分析（ICA）、小波变换和自适应滤波等，可以从复杂的背景噪声中提取出有用的神经信号。
+     - **多模态融合**：结合多种信号采集方法，如EEG、fMRI和MEG，通过多模态数据融合技术提高数据的准确性和可靠性。
+   - **系统集成与优化**：
+     - **实时处理与反馈**：设计高效的实时信号处理系统，能够快速响应和反馈，这对于脑-机接口的实际应用至关重要。
+     - **用户适应性**：考虑用户的个体差异，通过机器学习等技术优化信号处理参数，提高系统的适应性和个性化水平。
+   - **伦理与安全**：
+     - **伦理审查**：在开发和应用新的神经信号采集技术时，必须进行严格的伦理审查，确保技术的安全性和伦理性。
+     - **用户教育**：对用户进行必要的培训，确保他们能够正确使用这些设备，并了解相关的安全注意事项。
+2. **神经编码与解码算法的优化**
+   **数学教授的回答**：
+   设计更精确的神经编码与解码算法，以实现对大脑意图的准确理解和解读，是一个涉及机器学习、信号处理以及神经科学等多个领域的复杂问题。为了达到这一目标，可以从以下几个方面来考虑：
+   - **深度学习模型的选择与优化**：
+     - **卷积神经网络（CNN）**：适用于处理空间数据，如EEG信号的空间分布。
+     - **循环神经网络（RNN）及其变体（如长短期记忆网络LSTM）**：擅长处理时间序列数据，能够捕捉时间上的依赖关系。
+     - **混合模型**：结合CNN和RNN来同时处理空间和时间信息。
+     - **模型优化**：包括模型结构的调整、正则化技术的应用、以及超参数的调优等。
+   - **多模态数据融合技术**：
+     - **大脑活动**：不仅仅是单一模态信息的体现，而是多种生物电、化学信号的综合结果。
+     - **多模态数据融合**：通过特征级融合、决策级融合等方法，提供更全面的信息，提高解码的精度。
+   - **有效利用有限的训练数据**：
+     - **迁移学习**：从相关的任务或数据集中迁移已学得的知识，以辅助当前任务的学习。
+     - **半监督学习**：利用大量的未标记数据来改进模型的泛化能力。
+     - **强化学习**：在与环境的交互中不断优化策略。
+   - **个性化模型设计**：
+     - **个体化因素**：在模型训练阶段引入个体化因素，如通过个性化参数调优来适应不同个体的特定模式。
+   - **实验验证与优化**：
+     - **实验设计**：确保能够收集到高质量的数据，并设计合理的实验对照，准确评估算法的性能。
+     - **不断优化**：根据实验结果对算法进行不断的优化和调整，以达到最佳的解码效果。
+3. **脑-机接口系统的用户适应性与个性化设计**
+   **人工智能教授的回答**：
+   设计能够适应不同用户特点的脑-机接口系统，提高系统的个性化水平和用户体验，是一个跨学科的挑战，需要心理学、人机交互设计以及计算机科学等领域的专家共同协作。以下是从这些角度出发的一些建议：
+   - **用户认知模型的构建**：
+     - **心理学角度**：深入研究用户在使用脑-机接口系统时的认知过程，包括注意力分配、情绪反应、学习能力和疲劳度等。
+     - **数据驱动的方法**：利用机器学习和数据挖掘技术，分析大量用户使用数据，识别不同用户的认知特点和行为模式，进一步优化用户认知模型。
+   - **用户界面设计**：
+     - **人机交互设计**：设计直观、易用的用户界面，考虑不同用户的能力和需求。
+     - **个性化界面**：根据用户的偏好和习惯，提供可定制的界面设置，如颜色、字体、布局等，增强用户体验。
+     - **多模态交互**：结合视觉、听觉、触觉等多种感官通道，设计多模态交互方式，提高系统的适应性和可用性。
+   - **适应性算法的开发**：
+     - **机器学习**：开发自适应算法，能够根据用户的实时反馈和使用数据，动态调整系统的参数和行为。
+     - **个性化推荐**：利用推荐系统技术，根据用户的使用历史和偏好，推荐最适合的交互模式和任务设置。
+     - **情感计算**：集成情感计算技术，识别用户的情绪状态，调整系统的响应方式，提供更加人性化的交互体验。
+   - **用户反馈和评估**：
+     - **用户测试**：定期进行用户测试，收集用户的反馈意见，评估系统的个性化水平和用户体验。
+     - **性能评估**：建立一套综合的评估指标体系，包括任务完成时间、错误率、用户满意度等，全面评估系统的性能和用户满意度。
+   - **伦理和隐私**：
+     - **用户隐私保护**：确保用户数据的安全和隐私，遵守相关法律法规，透明地告知用户数据的使用方式和目的。
+     - **伦理考虑**：在设计和开发过程中，充分考虑伦理问题，确保系统的使用不会对用户造成负面影响。
+4. **长期使用脑-机接口的安全性和伦理问题**
+   **人工智能教授的回答**：
+   长期使用脑-机接口技术对用户的身体健康和心理健康可能产生多方面的影响。从医学角度来看，长期使用该技术可能会导致电极植入部位的炎症、感染、瘢痕形成等生理问题。此外，对于依赖脑-机接口技术完成日常活动的用户，可能会出现肌肉萎缩、关节僵硬等运动功能退化现象。在心理健康方面，长期依赖脑-机接口技术可能会导致用户产生过度依赖感，影响其自主生活的能力，同时也可能增加社交障碍和孤独感。此外，技术故障或限制可能导致用户产生挫败感和焦虑情绪。
+   为了确保脑-机接口技术的安全使用，并平衡技术创新与伦理道德之间的关系，需要医学、伦理学、法律等多学科专家的紧密合作，共同制定相关标准和指南。具体建议如下：
+   - **医学安全性评估**：在技术开发阶段，应进行严格的生物相容性测试，确保电极材料对人体无害；同时，需对长期植入电极后的生理反应进行持续监测，及时发现并处理潜在问题。
+   - **用户适应性训练**：为减少用户对技术的过度依赖，应提供充分的适应性训练，指导用户合理使用脑-机接口，增强其自我管理能力，促进社会互动，避免孤立。
+   - **伦理审查与隐私保护**：建立严格的伦理审查机制，确保技术应用过程中尊重用户意愿，保护个人隐私信息不被滥用。技术设计时应考虑数据加密、匿名化处理等措施，保障信息安全。
+   - **法律法规框架建设**：政府及相关机构应出台专门的法律法规，明确脑-机接口技术的研发、测试、上市等各个环节的规范要求，为技术的健康发展提供法律保障。
+   - **跨学科协作平台搭建**：构建多学科交流平台，促进医学、工程学、心理学、法学等领域专家之间的沟通合作，及时分享研究成果，共同应对技术发展带来的新挑战。
+5. **脑-机接口技术的实际应用与社会影响**
+   **地理学教授的回答**：
+   脑-机接口（Brain-Computer Interface, BCI）技术作为一项新兴的工程技术，近年来在医疗康复、辅助生活等实际场景的应用中展现出巨大的潜力。这项技术通过直接连接大脑与外部设备，使得人们能够仅通过思维来操控计算机或其他设备，对于行动不便的患者或残疾人士来说，无疑是一项重要的辅助工具。从地理学的角度出发，探讨脑-机接口技术的应用与社会影响，可以为我们提供更广阔的视角，理解这项技术如何更好地服务于人类社会，尤其是在不同地区和社会背景下。
+   - **医疗康复中的应用**：
+     - **辅助行动能力**：对于中风、脊髓损伤等导致行动不便的患者，脑-机接口技术可以帮助他们恢复一些基本的行动能力，比如通过思维控制轮椅移动或操作假肢。这不仅提高了患者的生活质量，也促进了他们社会参与的可能性。
+     - **恢复语言功能**：对于丧失语言功能的患者，脑-机接口技术可以通过解读大脑信号，将思维转化为文字或声音，帮助他们更好地与外界沟通。
+     - **精神健康支持**：对于患有严重抑郁症或其他精神障碍的人，脑-机接口技术可以通过监测和调节大脑活动，为患者提供一种新的治疗手段。
+   - **辅助生活中的应用**：
+     - **智能家居控制**：对于行动不便的老年人或残疾人士，脑-机接口技术可以让他们通过思维来控制家中的各类设备，如开关灯、调节温度等，极大地提高了他们的生活自理能力。
+     - **教育辅助**：在特殊教育领域，脑-机接口技术可以为有特殊需要的学生提供个性化的学习工具，如通过思维控制的学习游戏，帮助他们更好地学习和融入社会。
+   - **社会影响**：
+     - **伦理与隐私问题**：随着脑-机接口技术的发展，如何保护个人隐私和数据安全成为了一个重要的议题。此外，技术的使用也可能引发伦理争议，比如技术是否应该被用于改变一个人的思维或情绪。
+     - **社会包容性**：技术的普及和应用需要考虑到不同社会群体的需求，确保技术的可及性和公平性，避免技术鸿沟的扩大。
+     - **公共政策制定**：政府和社会机构需要制定相应的政策来规范脑-机接口技术的应用，确保技术的安全、有效和公平使用。这包括技术标准的建立、市场准入的管理以及对技术风险的评估和管理。
+### 结论
+脑-机接口技术的应用前景广阔，但其发展和应用也伴随着一系列挑战。从空间、环境与人类互动的角度来看，我们需要跨学科合作，结合地理学、社会学、工程学等多个领域的知识，来评估技术的社会影响，制定合理的公共政策，确保技术能够安全、有效地服务于人类社会，促进社会的可持续发展。</t>
+  </si>
+  <si>
+    <t>从生物学的角度出发，开发更高效、更稳定的神经信号采集技术，以提高脑-机接口的数据质量，需要综合考虑以下几个方面：
+1. **神经组织的生物相容性**：开发新型的电极材料，这些材料不仅要具备良好的导电性能，而且要与神经组织有高的生物相容性，减少免疫反应和组织损伤，从而实现长期稳定可靠的信号采集。例如，可以使用柔性的、可降解的或可再生的材料，这些材料能够适应脑组织的物理特性，减少机械应力对神经元活动的影响。
+2. **微创或非侵入技术的发展**：为了减少对脑组织的伤害，同时获取高质量的神经信号，需要开发微创或非侵入的信号采集技术。比如，利用高空间分辨率的成像技术（如功能性近红外光谱成像fNIRS、高场强MRI等）来间接获取大脑活动信息，或者采用微小的植入式微型电极阵列，这些阵列可以精确地放置在特定的神经元群落附近，以最小的侵入性实现信号的采集。
+3. **神经信号的预处理技术**：在信号采集阶段，采用先进的信号处理技术来提高信噪比(SNR)是非常重要的。这包括但不限于使用智能滤波算法去除背景噪声，采用多通道同步记录技术提高信号的时空分辨率，以及通过机器学习方法自动检测和排除伪迹信号，从而获取更加纯净的神经信号。
+4. **神经编码与解码的生物学基础**：深入研究神经元群体编码机制，理解大脑如何通过神经放电模式表征信息，对于优化脑-机接口系统至关重要。这不仅需要跨学科的合作，例如神经科学、计算科学，还需要基于生物学实验的验证，如通过光遗传学技术对特定神经元进行精确控制，以探索不同编码模式下的信号特征。
+5. **适应性与个性化设计**：考虑到每位使用者的神经解剖结构和神经功能可能存在差异，脑-机接口技术的设计应当具备高度的个性化特征。这要求在采集技术上实现自适应调节，能够根据不同用户的具体情况调整电极阵列的位置、密度等参数，确保每位用户都能获得最佳的信号采集效果。
+6. **长期稳定性和安全性**：除了上述技术层面的考量，还需要关注长期使用脑-机接口设备的稳定性和安全性问题。这包括监测电极与脑组织之间的界面变化，评估长期植入可能引发的生物化学反应，以及设计合理的取出机制，确保在必要时能够安全地移除设备，避免对使用者造成不可逆的伤害。
+综上所述，开发更高效、更稳定的神经信号采集技术，是一个多学科交叉的复杂工程问题，需要生物学、材料科学、计算机科学等领域的专家紧密合作，共同推进脑-机接口技术的发展，最终实现其在医疗康复、辅助生活等多个领域的广泛应用。</t>
+  </si>
+  <si>
+    <t>针对神经编码与解码算法的设计，以实现对大脑意图的准确理解和解读，需要从多个数学角度进行深入分析。这不仅是脑-机接口研究的核心，也涉及到工程学、计算机科学、生物学等多个领域。以下是几个关键的数学方法和理论，它们在优化神经编码与解码算法中扮演着重要角色：
+1. **信号处理与模式识别**：神经信号的采集通常会产生大量的数据，这些数据中包含着噪声和有用的信号。利用信号处理技术，如傅立叶变换、小波变换等，可以有效地从原始数据中提取出有用的信息。模式识别技术，如支持向量机（SVM）、深度学习模型等，则用于识别和分类这些信号模式，从而实现对大脑意图的理解。例如，深度学习中的卷积神经网络（CNN）能够自动学习信号中的复杂特征，对于提高解码精度非常关键。
+2. **概率模型与贝叶斯推断**：在神经信号的解码过程中，概率模型可以用于描述信号的概率分布，而贝叶斯推断则可以用来优化解码过程中的参数估计。通过构建一个基于先验知识的概率模型，并结合实际观测数据进行后验估计，可以提高解码算法的准确性和鲁棒性。例如，隐马尔可夫模型（HMM）和状态空间模型（SSM）在序列数据的解码中表现出色，能够捕捉时间上的动态变化。
+3. **优化理论**：神经编码与解码算法的性能往往依赖于算法参数的优化。使用优化理论，如梯度下降、遗传算法、粒子群优化等，可以有效地搜索参数空间，找到最优或近似最优的解。优化过程不仅要考虑解码精度，还要考虑计算效率和模型复杂度，以实现算法的高效运行。
+4. **图论与网络分析**：神经元之间的连接可以被建模为图结构，其中节点代表神经元，边代表神经元之间的连接。通过图论方法，可以分析神经网络的结构特性，如连通性、中心性、模块化等，这对于理解大脑的网络架构以及信息处理机制至关重要。此外，图神经网络（GNN）等新兴技术也被用于神经信号的处理和解码，提供了一种新的思路。
+5. **系统辨识与控制理论**：在脑-机接口系统中，不仅要实现对大脑信号的解码，还需要将解码结果转化为对外部设备的有效控制。系统辨识技术可以帮助建立大脑信号与外部设备运动之间的映射关系，而控制理论则可以设计出适应这种非线性、时变系统的控制器，以提高系统的响应速度和控制精度。
+6. **多模态数据融合**：大脑活动是多模态的，不仅包括电生理信号，还可能涉及到功能磁共振成像（fMRI）、近红外光谱成像（NIRS）等多种模态的数据。利用多模态数据融合技术，可以综合多种信息源，提高解码算法的准确性和鲁棒性。例如，通过联合训练多模态数据的模型，可以捕捉不同模态之间的互补信息，从而提高解码性能。
+综上所述，神经编码与解码算法的设计是一个多学科交叉的问题，需要综合运用信号处理、概率统计、优化理论、图论、系统辨识与控制理论等多个领域的知识。随着相关技术的不断进步和跨学科合作的深入，我们有望实现更加精确和高效的神经编码与解码算法，为脑-机接口技术的发展做出更大的贡献。</t>
+  </si>
+  <si>
+    <t>设计能够适应不同用户特点的脑-机接口（BCI）系统，以提高系统的个性化水平和用户体验，是一个多学科交叉的问题，涉及神经科学、计算机科学、心理学以及人机交互等多个领域。以下是从人工智能角度出发，针对这一任务的几个关键方面进行的设计考量：
+1. **高效的神经信号采集与处理技术**：这是BCI系统的基础。通过使用先进的机器学习算法，如深度学习、卷积神经网络等，可以更准确地从噪声数据中提取有用的脑电信号。同时，利用自适应滤波和特征选择技术，根据用户的特定脑电活动模式优化信号处理流程，提高信号的信噪比和稳定性。
+2. **神经编码与解码算法的优化**：为了实现更精准的意念控制，需要不断优化神经编码与解码算法。可以采用基于深度学习的模型，如长短时记忆网络（LSTM）和门控循环单元（GRU），来捕捉脑电活动的非线性和时序特征。此外，引入迁移学习技术，允许系统从一个用户的训练数据中学习到的知识迁移至另一个用户，减少新用户适应系统的训练时间。
+3. **用户适应性与个性化设计**：每个人的脑电活动模式都有所不同，因此BCI系统需要具备高度的自适应性和个性化能力。可以通过构建用户模型，利用机器学习算法，如支持向量机（SVM）、随机森林等，根据用户的生理特征、心理状态和使用习惯自动生成个性化的控制策略。系统还应该支持用户反馈机制，让用户能够参与到系统的训练过程中，实现人与机器的协同进化。
+4. **用户体验的提升**：良好的用户体验是提高用户接受度和使用效率的关键。可以从界面设计、交互方式等方面入手，采用自然语言处理技术提供更友好的语音交互界面；利用增强现实（AR）或虚拟现实（VR）技术创造沉浸式体验，使用户能够更加直观地理解自己的脑电活动与系统响应之间的关系；同时，考虑用户的舒适度，设计轻便、舒适的可穿戴设备，减少长时间使用的不适感。
+5. **长期使用安全性和伦理问题**：在设计BCI系统时，还需充分考虑其长期使用的安全性和伦理问题。确保系统的数据安全，防止个人信息泄露；遵循医学伦理原则，保证实验和应用过程中的用户权利；同时，对于潜在的心理影响和社会影响进行评估，确保技术的正面价值得以最大化。
+综上所述，通过综合运用人工智能领域的先进技术，结合跨学科的知识和方法，可以有效地设计出既具备高度个性化又具有良好用户体验的脑-机接口系统。这不仅能够促进BCI技术的研究与发展，也有助于推动其在医疗康复、辅助生活、娱乐等多个领域的广泛应用。</t>
+  </si>
+  <si>
+    <t>从地理学的角度来看待脑-机接口（BMI, Brain-Machine Interface）技术在实际应用中的社会影响，需要关注其在不同地理空间中的应用情况、对当地社会经济结构的影响、以及它如何改变人与环境之间的互动模式。此外，还需要考虑这一技术如何影响不同区域的社会包容性、伦理与隐私问题。
+1. **医疗康复领域的应用及其地理分布**：脑-机接口技术在医疗康复领域有着广泛的应用前景，如帮助截肢患者通过思维控制假肢、辅助脑损伤患者的康复训练等。不同地区的经济发展水平、医疗资源分配情况会影响这一技术在当地的普及率和服务质量。例如，发达地区可能更早地采用这项技术，而欠发达地区则可能因技术资源和经济条件的限制而滞后。这种地理分布的不均衡可能会加剧区域间医疗资源的不平等。
+2. **辅助生活技术的应用与社会经济影响**：随着脑-机接口技术的发展，它在辅助生活技术中的应用也日益增多，比如通过脑电波控制智能家居，为行动不便的老年人或残障人士提供便利。这不仅能够提高生活品质，还能促进社会生产力的发展。然而，技术的高成本和维护需求可能会限制其在低收入家庭或地区的普及，从而影响社会整体的福利水平。
+3. **伦理与隐私问题**：随着脑-机接口技术的深入应用，个人隐私和数据安全问题日益凸显。如何在促进技术发展的同时保护个人隐私，避免个人信息被滥用，成为亟待解决的问题。此外，技术的不当使用还可能触及伦理底线，如未经个体同意对其思维进行干预等。
+4. **社会包容性问题**：脑-机接口技术的发展应当考虑到多样性和平等性原则，避免技术进步带来的社会排斥。例如，在设计用户界面时应充分考虑到不同年龄、性别、文化背景人群的需求，确保技术的公平可及性和使用友好性。同时，还需要关注技术普及过程中可能出现的数字鸿沟问题，通过政策引导和支持，促进技术在更广泛社会群体中的应用。
+综上所述，脑-机接口技术的发展与应用不仅是一个技术问题，也是一个涉及地理空间、社会经济、伦理道德等多个层面的综合性问题。地理学的研究方法和视角能够帮助我们更好地理解技术在不同环境下的适应性和局限性，为促进技术的健康、可持续发展提供科学依据。</t>
+  </si>
+  <si>
+    <t>从物理学的角度分析，脑-机接口（BMI, Brain-Machine Interface）技术的长期使用对用户的身体健康和心理健康产生的影响，以及确保技术的安全使用，涉及到多学科的交叉研究。物理学不仅提供了处理神经信号的数学工具，如信号处理中的滤波、降噪等技术，还为理解和模拟神经编码与解码过程提供了基础，尤其是在模型构建和系统动力学分析方面。此外，物理学的视角还能帮助我们在宏大的系统层面理解BMI技术对个体乃至社会层面的影响。
+1. **身体健康的影响**：长期使用BMI技术可能会对用户的神经系统产生一定的影响。物理建模可以帮助预测神经组织在长期电刺激下的反应，包括可能的组织损伤、炎症反应等。此外，长期穿戴设备可能导致局部皮肤问题，如过敏、刺激等，这些问题可以通过对材料物理性质的优化来缓解。因此，确保技术的安全使用需从材料选择、电极设计、信号处理算法等方面综合考虑，减少不良反应的发生。
+2. **心理健康的影响**：从心理学与社会学的角度看，长期使用BMI可能会影响用户的自我认知和社会交往。物理模型可以用来分析大脑在与外部设备交互时的信息流动模式，帮助我们理解这种技术如何改变人的认知过程。此外，社会物理学的视角能帮助我们探讨技术如何重塑人际互动和社会结构，这对于评估心理健康影响至关重要。确保技术的伦理使用，需要制定严格的隐私保护措施，避免技术滥用，确保用户的心理安全。
+3. **技术创新与伦理道德之间的平衡**：在推动BMI技术创新的同时，必须认真考虑伦理问题，如隐私保护、数据安全、用户同意等。物理学家可以通过建立透明、可解释的计算模型来增强算法的信任度，同时，跨学科合作至关重要，需要与伦理学家、社会学家、心理学家等共同探讨技术的社会影响，确保技术发展符合人类社会的价值观。
+4. **确保技术的安全使用**：除了上述提到的具体措施外，还需要建立一套全面的安全评估体系，包括但不限于生物相容性测试、长期健康监测、用户反馈机制等。利用物理学的精密测量技术，可以提高这些评估的准确性和可靠性，确保BMI技术的安全性和有效性。
+综上所述，脑-机接口技术的发展是一个多学科合作的过程，不仅需要技术创新，还需要深入理解技术对人类健康和社会的影响，确保技术的安全性和伦理性。物理学在这个过程中扮演着重要的角色，通过提供强大的分析工具和模型，帮助我们更好地理解和预测BMI技术的长期影响，从而促进技术的健康、可持续发展。</t>
+  </si>
+  <si>
+    <t>### 脑-机接口系统研究的核心子问题及其学科视角分析
+1. **神经信号的高效采集与处理技术**
+   **生物学教授的回答**：
+   - **神经组织的生物相容性**：开发新型的电极材料，这些材料不仅要具备良好的导电性能，而且要与神经组织有高的生物相容性，减少免疫反应和组织损伤，从而实现长期稳定可靠的信号采集。
+   - **微创或非侵入技术的发展**：利用高空间分辨率的成像技术（如功能性近红外光谱成像fNIRS、高场强MRI）来间接获取大脑活动信息，或者采用微小的植入式微型电极阵列，以最小的侵入性实现信号的采集。
+   - **神经信号的预处理技术**：采用先进的信号处理技术来提高信噪比（SNR），例如使用智能滤波算法去除背景噪声，采用多通道同步记录技术提高信号的时空分辨率，以及通过机器学习方法自动检测和排除伪迹信号。
+   - **神经编码与解码的生物学基础**：深入研究神经元群体编码机制，理解大脑如何通过神经放电模式表征信息，对于优化脑-机接口系统至关重要。
+   - **适应性与个性化设计**：考虑到每位使用者的神经解剖结构和神经功能可能存在差异，脑-机接口技术的设计应当具备高度的个性化特征。
+   - **长期稳定性和安全性**：关注长期使用脑-机接口设备的稳定性和安全性问题，包括监测电极与脑组织之间的界面变化，评估长期植入可能引发的生物化学反应，以及设计合理的取出机制。
+2. **神经编码与解码算法的优化**
+   **数学教授的回答**：
+   - **信号处理与模式识别**：利用信号处理技术，如傅立叶变换、小波变换等，从原始数据中提取有用的信息。模式识别技术，如支持向量机（SVM）、深度学习模型等，用于识别和分类这些信号模式。
+   - **概率模型与贝叶斯推断**：通过构建基于先验知识的概率模型，并结合实际观测数据进行后验估计，提高解码算法的准确性和鲁棒性。
+   - **优化理论**：使用优化理论，如梯度下降、遗传算法、粒子群优化等，搜索参数空间，找到最优或近似最优的解。
+   - **图论与网络分析**：通过图论方法，分析神经网络的结构特性，如连通性、中心性、模块化等，理解大脑的网络架构。
+   - **系统辨识与控制理论**：建立大脑信号与外部设备运动之间的映射关系，并设计适应这种非线性、时变系统的控制器。
+   - **多模态数据融合**：综合多种信息源，提高解码算法的准确性和鲁棒性。
+3. **脑-机接口系统的用户适应性与个性化设计**
+   **人工智能教授的回答**：
+   - **高效的神经信号采集与处理技术**：使用先进的机器学习算法，如深度学习、卷积神经网络等，更准确地从噪声数据中提取有用的脑电信号。
+   - **神经编码与解码算法的优化**：采用基于深度学习的模型，如长短时记忆网络（LSTM）和门控循环单元（GRU），捕捉脑电活动的非线性和时序特征。引入迁移学习技术，减少新用户适应系统的训练时间。
+   - **用户适应性与个性化设计**：构建用户模型，利用机器学习算法，根据用户的生理特征、心理状态和使用习惯自动生成个性化的控制策略。支持用户反馈机制，实现人与机器的协同进化。
+   - **用户体验的提升**：采用自然语言处理技术提供友好的语音交互界面；利用增强现实（AR）或虚拟现实（VR）技术创造沉浸式体验；设计轻便、舒适的可穿戴设备，减少长时间使用的不适感。
+   - **长期使用安全性和伦理问题**：确保系统的数据安全，防止个人信息泄露；遵循医学伦理原则，保证实验和应用过程中的用户权利；评估潜在的心理影响和社会影响。
+4. **长期使用脑-机接口的安全性和伦理问题**
+   **人工智能教授的回答**：
+   - **医学安全性评估**：进行严格的生物相容性测试，确保电极材料对人体无害；对长期植入电极后的生理反应进行持续监测，及时发现并处理潜在问题。
+   - **用户适应性训练**：提供充分的适应性训练，指导用户合理使用脑-机接口，增强其自我管理能力，促进社会互动，避免孤立。
+   - **伦理审查与隐私保护**：建立严格的伦理审查机制，确保技术应用过程中尊重用户意愿，保护个人隐私信息不被滥用。设计数据加密、匿名化处理等措施，保障信息安全。
+   - **法律法规框架建设**：出台专门的法律法规，明确脑-机接口技术的研发、测试、上市等各个环节的规范要求，为技术的健康发展提供法律保障。
+   - **跨学科协作平台搭建**：构建多学科交流平台，促进医学、工程学、心理学、法学等领域专家之间的沟通合作，共同应对技术发展带来的新挑战。
+5. **脑-机接口技术的实际应用与社会影响**
+   **地理学教授的回答**：
+   - **医疗康复中的应用**：帮助中风、脊髓损伤等导致行动不便的患者恢复基本的行动能力；恢复语言功能；提供精神健康支持。
+   - **辅助生活中的应用**：通过思维控制智能家居，提高老年人和残疾人士的生活自理能力；在特殊教育领域提供个性化的学习工具。
+   - **社会影响**：伦理与隐私问题，如个人隐私保护和数据安全；社会包容性问题，确保技术的可及性和公平性；公共政策制定，规范技术的使用，确保安全、有效和公平。
+综上所述，脑-机接口技术的发展是一个多学科合作的过程，不仅需要技术创新，还需要深入理解技术对人类健康和社会的影响，确保技术的安全性和伦理性。从生物学、数学、人工智能、地理学等不同学科的视角出发，我们可以更好地理解脑-机接口技术的发展和应用，促进其在医疗康复、辅助生活等多个领域的广泛应用，最终实现技术的健康、可持续发展。</t>
+  </si>
+  <si>
+    <t>**项目申请书**
+**摘要**
+本项目旨在通过跨学科合作，开发一种高效、稳定、个性化的脑-机接口（BCI）系统，解决当前技术在数据采集、信号处理、用户适应性、安全性和实际应用等方面的局限。项目将整合神经科学、生物医学工程、机器学习、心理学、伦理学和社会学等多个学科的知识，系统性地提出解决方案，以推动BCI技术的发展和实际应用，为医疗康复、辅助生活等领域提供强有力的支持。
+**研究背景和意义**
+脑-机接口技术是结合神经科学、生物医学工程和计算机科学的前沿技术，通过直接读取大脑信号来控制外部设备，为瘫痪患者、神经系统疾病患者等提供了新的康复和治疗手段。然而，当前的BCI技术在信号采集的稳定性、信号处理的精度、用户适应性、长期使用的安全性和伦理问题、以及实际应用的广度和深度等方面仍存在诸多挑战。本项目将针对这些挑战，提出系统性的解决方案，不仅能够提高BCI技术的性能，还能推动其在医疗康复、辅助生活等领域的广泛应用，具有重要的科学意义和应用价值。
+**研究内容**
+1. **神经信号的高效采集与处理技术**
+   - 开发高密度、高稳定性电极，优化电极材料和结构设计，提高信号采集的密度和稳定性。
+   - 探索新型无创和微创信号采集方法，减少信号噪声，提高信噪比。
+   - 研究信号预处理算法，包括滤波、降噪、去伪迹等技术，确保数据质量。
+2. **神经编码与解码算法的优化**
+   - 设计和优化深度学习模型，提高对大脑意图的解码精度。
+   - 研究多模态数据融合技术，结合电生理信号、功能磁共振成像（fMRI）等多模态数据，提高解码的鲁棒性。
+   - 开发有限数据下的模型训练方法，减少对大量标注数据的依赖。
+3. **脑-机接口系统的用户适应性与个性化设计**
+   - 构建用户认知模型，分析用户在使用BCI系统时的认知过程和行为特征。
+   - 设计用户友好的界面，提高系统的易用性和用户体验。
+   - 开发适应性算法，使系统能够根据用户的使用情况自动调整参数，提高个性化水平。
+4. **长期使用脑-机接口的安全性和伦理问题**
+   - 研究长期使用BCI技术对用户身体和心理健康的影响，制定相应的安全标准。
+   - 探讨技术使用中的伦理问题，平衡技术创新与伦理道德的关系，制定伦理指南。
+   - 与法律专家合作，制定相关的法律法规，确保技术的安全和合法使用。
+5. **脑-机接口技术的实际应用与社会影响**
+   - 探索BCI技术在医疗康复、辅助生活等领域的具体应用，开发相应的应用系统。
+   - 研究技术应用的社会影响，包括对患者生活质量的提升、对医疗资源的优化配置等。
+   - 与政策制定者合作，制定公共政策，推动技术的普及和应用。
+**拟解决的科学问题**
+1. **提高神经信号采集的稳定性和质量**：通过优化电极设计和信号预处理算法，解决信号采集的稳定性和质量问题。
+2. **提高神经编码与解码的精度**：通过优化深度学习模型和多模态数据融合技术，提高对大脑意图的解码精度。
+3. **提高系统的用户适应性和个性化水平**：通过构建用户认知模型和开发适应性算法，提高系统的用户适应性和个性化水平。
+4. **确保长期使用的技术安全性和伦理合规性**：通过研究长期使用的影响和制定相关标准，确保技术的安全性和伦理合规性。
+5. **推动技术的实际应用和社会影响**：通过探索具体应用和制定公共政策，推动技术的普及和应用，评估其社会影响。
+**拟提出的技术路线**
+1. **神经信号的高效采集与处理技术**
+   - **高密度电极设计**：采用新型材料和制造工艺，开发高密度、高稳定性的电极，提高信号采集的密度和稳定性。
+   - **无创/微创信号采集方法**：研究基于光学生物传感器、超声波等新型无创或微创信号采集方法，减少信号噪声，提高信噪比。
+   - **信号预处理算法**：开发先进的滤波、降噪、去伪迹算法，确保采集到的信号质量满足后续处理的要求。
+2. **神经编码与解码算法的优化**
+   - **深度学习模型优化**：选择适合BCI任务的深度学习模型，如卷积神经网络（CNN）、循环神经网络（RNN）等，通过数据增强、迁移学习等方法优化模型性能。
+   - **多模态数据融合**：结合电生理信号、fMRI等多模态数据，开发多模态融合算法，提高解码的鲁棒性和精度。
+   - **有限数据训练方法**：研究自监督学习、半监督学习等方法，减少对大量标注数据的依赖，提高模型的泛化能力。
+3. **脑-机接口系统的用户适应性与个性化设计**
+   - **用户认知模型构建**：通过行为实验和心理测试，构建用户认知模型，分析用户在使用BCI系统时的认知过程和行为特征。
+   - **用户界面设计**：采用人机交互设计原则，设计用户友好的界面，提高系统的易用性和用户体验。
+   - **适应性算法开发**：开发基于用户使用数据的适应性算法，使系统能够自动调整参数，提高个性化水平。
+4. **长期使用脑-机接口的安全性和伦理问题**
+   - **安全性研究**：通过长期临床试验，研究BCI技术对用户身体和心理健康的影响，制定相应的安全标准和操作指南。
+   - **伦理问题探讨**：组织伦理学专家和法律专家，探讨技术使用中的伦理问题，制定伦理指南，确保技术的伦理合规性。
+   - **法律法规制定**：与相关法律专家合作，制定相关的法律法规，确保技术的安全和合法使用。
+5. **脑-机接口技术的实际应用与社会影响**
+   - **具体应用开发**：针对医疗康复、辅助生活等具体应用场景，开发相应的应用系统，如康复训练系统、智能家居控制系统等。
+   - **社会影响评估**：通过社会学研究，评估BCI技术对患者生活质量的提升、对医疗资源的优化配置等社会影响。
+   - **公共政策制定**：与政策制定者合作，制定公共政策，推动技术的普及和应用，确保技术的社会效益最大化。
+**预期成果**
+1. **技术成果**：开发出高效、稳定、个性化的BCI系统，包括高密度电极、无创/微创信号采集设备、优化的神经编码与解码算法、用户友好的界面和适应性算法等。
+2. **应用成果**：在医疗康复、辅助生活等领域开发出具体的应用系统，提高患者的生活质量，优化医疗资源的配置。
+3. **标准与指南**：制定BCI技术的安全标准、伦理指南和相关法律法规，确保技术的安全和合法使用。
+4. **社会影响**：评估BCI技术的社会影响，推动技术的普及和应用，提高社会对技术的接受度和认可度。
+通过本项目的实施，不仅能够解决当前BCI技术面临的多个关键问题，还能够推动BCI技术在多个领域的广泛应用，具有重大的科学意义和应用价值。</t>
   </si>
 </sst>
 </file>
@@ -511,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,13 +830,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,13 +858,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -578,13 +872,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -592,13 +886,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -606,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -620,13 +914,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -634,13 +928,139 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
